--- a/data/trans_bre/P21_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>21,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,82%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>593,27%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.17604258364618</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>20.10690811931225</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1681592008234679</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>5.949076894589415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,25; 20,15</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 35,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-54,45; 221,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.25270394900317</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7.148965804632888</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.5445477266349036</v>
+      </c>
+      <c r="F5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.14875423589063</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>33.92701099392632</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>2.213525890897385</v>
+      </c>
+      <c r="F6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>15,43</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-9,49</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>109,43%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-26,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 31,68</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-41,99; 19,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,9; 526,48</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-73,61; 254,35</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>15.43262041483306</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.342632386560047</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.094327903405629</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1310165048105083</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,76%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6580324924510358</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-32.20705807395149</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.06901744681246795</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.6765949357733497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,2; 12,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,34; 12,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-47,16; 76,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-45,7; 76,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>31.6803886507249</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.09120317311777</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>5.264771733300452</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>2.14374687824919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +712,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,59</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>15,8</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>49,54%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>201,86%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.504154084676984</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.08424195358678332</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.05755074229087871</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.003340609797598552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 17,35</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,61; 25,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-20,85; 260,2</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>39,35; 688,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.19974688773661</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.06721095528176</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.4716126324872886</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4130536202719793</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.63730680159456</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.85847308609835</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.7679443121557513</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.9160669293068359</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,32</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>32,79%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>39,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-10,14; 21,12</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,19; 18,27</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-40,02; 170,77</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-50,33; 260,63</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.585165569399027</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>15.37933212487674</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.4953761111381373</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.815532136686441</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,19</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,55%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>25,2%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.5985316754323</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.754330794675744</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2085254141402539</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.1847113965671204</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-16,04; 22,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-14,01; 23,62</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-45,26; 148,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-52,04; 211,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.3535998548078</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>25.35911518894717</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.602005228800885</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>6.371170252598415</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +840,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>29,51%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>31,5%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>6.320537806478901</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>4.84386592977692</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.3279393719744742</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.4450086294205078</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 11,59</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 12,92</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 71,83</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-17,45; 102,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.13988612975363</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.642139621714536</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.4002086531037589</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.5014764416554096</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>21.11885041873892</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>18.29995273952457</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>1.707746909498493</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>2.594720426887472</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.598027506266765</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>7.825201143211078</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.1355420069915632</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.4330190807365354</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-16.03740973592059</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-10.66471719444397</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.452645106624831</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.4509989827702174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>22.98288800652285</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>25.77013799340555</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.479973092773646</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>2.66893353878007</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5.647136722451809</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>6.777991623534802</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.2950959421733902</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.3877741646987406</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.083282874425077</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-2.946903505005065</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.0570379163919195</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.1351586288221932</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>11.5925555767533</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>13.9407737730474</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.7183090209136367</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1.112983412208756</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1030,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
